--- a/input/file1_to_process.xlsx
+++ b/input/file1_to_process.xlsx
@@ -165,13 +165,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.85"/>
@@ -242,40 +242,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
